--- a/docs/20140529_LogTime_T5.xlsx
+++ b/docs/20140529_LogTime_T5.xlsx
@@ -121,56 +121,6 @@
           </rPr>
           <t xml:space="preserve">
 Tháng 4 đã nhận 5.000.000 / 5.373.077
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C33" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>ANLT LE THANH AN:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Tạm tinh
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D33" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>ANLT LE THANH AN:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Tạm tính cho TA là 4h
 </t>
         </r>
       </text>
@@ -414,6 +364,15 @@
   </cellStyles>
   <dxfs count="21">
     <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
@@ -502,18 +461,12 @@
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="0"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
@@ -523,9 +476,6 @@
           <bgColor theme="0"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
@@ -573,11 +523,11 @@
   <autoFilter ref="A3:D34"/>
   <tableColumns count="4">
     <tableColumn id="1" name="SPRINT " dataDxfId="18"/>
-    <tableColumn id="2" name="Ngày " dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="3" name="ANLT" totalsRowFunction="custom" dataDxfId="15" totalsRowDxfId="14">
+    <tableColumn id="2" name="Ngày " dataDxfId="17" totalsRowDxfId="2"/>
+    <tableColumn id="3" name="ANLT" totalsRowFunction="custom" dataDxfId="16" totalsRowDxfId="1">
       <totalsRowFormula>SUM(Table1[ANLT])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" name="ANHDT" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="12">
+    <tableColumn id="5" name="ANHDT" totalsRowFunction="custom" dataDxfId="15" totalsRowDxfId="0">
       <totalsRowFormula>SUM(Table1[ANHDT])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -590,14 +540,14 @@
   <autoFilter ref="F17:J19"/>
   <tableColumns count="5">
     <tableColumn id="1" name="ACCOUNT "/>
-    <tableColumn id="2" name="Lương " dataDxfId="11"/>
-    <tableColumn id="3" name="Trên Tháng " dataDxfId="10">
+    <tableColumn id="2" name="Lương " dataDxfId="14"/>
+    <tableColumn id="3" name="Trên Tháng " dataDxfId="13">
       <calculatedColumnFormula>(G18/2)*0.8</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Trên Ngày " dataDxfId="9">
+    <tableColumn id="4" name="Trên Ngày " dataDxfId="12">
       <calculatedColumnFormula>H18/(31-4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Trên Giờ " dataDxfId="8">
+    <tableColumn id="5" name="Trên Giờ " dataDxfId="11">
       <calculatedColumnFormula>I18/4</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -610,8 +560,8 @@
   <autoFilter ref="F3:H9"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Chia theo Tuần"/>
-    <tableColumn id="2" name="ANLT" dataDxfId="7"/>
-    <tableColumn id="3" name="ANHDT" dataDxfId="6"/>
+    <tableColumn id="2" name="ANLT" dataDxfId="10"/>
+    <tableColumn id="3" name="ANHDT" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -621,12 +571,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="F23:H30" totalsRowCount="1">
   <autoFilter ref="F23:H29"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Giai đoạn" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="2" name="ANLT" totalsRowFunction="custom" dataDxfId="3" totalsRowDxfId="2">
+    <tableColumn id="1" name="Giai đoạn" dataDxfId="8" totalsRowDxfId="7"/>
+    <tableColumn id="2" name="ANLT" totalsRowFunction="custom" dataDxfId="6" totalsRowDxfId="5">
       <calculatedColumnFormula>IF(G4&gt;=28,(G4-4)*$J$18,IF(G4&lt;=24,G4 *$J$18,24*$J$18 ))</calculatedColumnFormula>
       <totalsRowFormula>SUM(Table3[ANLT])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="ANHDT" totalsRowFunction="custom" dataDxfId="1" totalsRowDxfId="0">
+    <tableColumn id="3" name="ANHDT" totalsRowFunction="custom" dataDxfId="4" totalsRowDxfId="3">
       <calculatedColumnFormula>IF(H4&gt;=28,(H4-4)*$J$19,IF(H4&lt;=24,H4 *$J$19,24*$J$19 ))</calculatedColumnFormula>
       <totalsRowFormula>SUM(Table3[ANHDT])</totalsRowFormula>
     </tableColumn>
@@ -890,7 +840,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -900,8 +850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1102,11 +1052,11 @@
       </c>
       <c r="G8" s="11">
         <f>SUM(C29:C34)</f>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H8" s="9">
         <f>SUM(D31:D34)</f>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I8" s="5"/>
       <c r="K8" s="7"/>
@@ -1131,11 +1081,11 @@
       </c>
       <c r="G9" s="11">
         <f>SUM(G4:G8)-J4-L4</f>
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H9" s="9">
         <f>SUM(H4:H8)-K4-M4</f>
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I9" s="5"/>
       <c r="K9" s="7"/>
@@ -1514,11 +1464,11 @@
       </c>
       <c r="G28" s="6">
         <f t="shared" si="2"/>
-        <v>1100000</v>
+        <v>1018518.5185185184</v>
       </c>
       <c r="H28" s="6">
         <f t="shared" si="1"/>
-        <v>492592.59259259258</v>
+        <v>440740.74074074079</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -1556,11 +1506,11 @@
       <c r="F30" s="3"/>
       <c r="G30" s="6">
         <f>SUM(Table3[ANLT])</f>
-        <v>5424928.8518518517</v>
+        <v>5343447.3703703703</v>
       </c>
       <c r="H30" s="6">
         <f>SUM(Table3[ANHDT])</f>
-        <v>1555555.5555555557</v>
+        <v>1503703.7037037038</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -1600,10 +1550,10 @@
         <v>41789</v>
       </c>
       <c r="C33" s="14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1624,11 +1574,11 @@
       <c r="B35" s="1"/>
       <c r="C35" s="5">
         <f>SUM(Table1[ANLT])</f>
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D35" s="5">
         <f>SUM(Table1[ANHDT])</f>
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
